--- a/data/trans_dic/P18_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,61%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>13,85%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>12,54%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>5,08%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>93,73%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,31</t>
+          <t>8,75; 14,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,43</t>
+          <t>2,82; 8,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,09</t>
+          <t>3,56; 7,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,2</t>
+          <t>2,4; 6,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,54; 96,72</t>
+          <t>1,74; 4,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 16,19</t>
+          <t>3,38; 6,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,52</t>
+          <t>3,84; 7,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,68</t>
+          <t>11,44; 16,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,85</t>
+          <t>4,07; 7,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90,21; 94,21</t>
+          <t>5,8; 9,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 14,68</t>
+          <t>3,85; 7,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,02</t>
+          <t>2,31; 6,14</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,07</t>
+          <t>6,03; 9,96</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,41</t>
+          <t>4,41; 7,67</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>92,33; 94,93</t>
+          <t>10,59; 14,44</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 7,09</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 7,98</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 5,97</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 4,88</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 7,82</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 6,97</t>
         </is>
       </c>
     </row>
@@ -850,17 +959,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -870,57 +979,87 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>12,45%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>11,14%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>94,41%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 13,31</t>
+          <t>7,3; 13,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,71</t>
+          <t>1,2; 4,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,48</t>
+          <t>2,26; 5,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,49</t>
+          <t>1,62; 4,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,35; 96,22</t>
+          <t>2,6; 7,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 15,2</t>
+          <t>3,68; 10,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,6</t>
+          <t>2,85; 8,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,33</t>
+          <t>10,03; 15,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,79</t>
+          <t>3,47; 9,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>91,26; 97,57</t>
+          <t>5,04; 9,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 13,54</t>
+          <t>3,78; 10,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,02</t>
+          <t>2,67; 6,18</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,75</t>
+          <t>2,35; 8,7</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,57</t>
+          <t>2,55; 7,75</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>92,08; 96,44</t>
+          <t>9,47; 13,49</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 5,98</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 6,63</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 6,22</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 5,99</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 8,21</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 7,02</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>12,73%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>12,72%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>8,13%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>4,45%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 18,57</t>
+          <t>7,4; 18,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,72</t>
+          <t>0,0; 5,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 11,77</t>
+          <t>3,74; 12,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 11,12</t>
+          <t>2,67; 10,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,49; 13,17</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,32; 18,15</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 15,23</t>
+          <t>8,26; 17,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 7,28</t>
+          <t>2,09; 10,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>6,2; 15,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 7,64</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 6,96</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,49; 16,64</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 5,96</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 11,75</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 16,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 6,76</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 12,18</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 7,67</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 7,99</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>12,01%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>93,88%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 12,99</t>
+          <t>8,93; 13,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,25</t>
+          <t>2,31; 5,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,5</t>
+          <t>3,71; 6,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,36</t>
+          <t>2,68; 4,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,18; 96,07</t>
+          <t>2,73; 5,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,62; 15,05</t>
+          <t>3,81; 6,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,01</t>
+          <t>3,89; 7,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 8,96</t>
+          <t>11,56; 15,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,3</t>
+          <t>4,32; 7,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,99; 94,49</t>
+          <t>6,44; 8,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 13,33</t>
+          <t>4,09; 6,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,51</t>
+          <t>2,74; 5,07</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,36</t>
+          <t>5,57; 8,83</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,01</t>
+          <t>4,17; 7,27</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>92,76; 94,96</t>
+          <t>10,81; 13,29</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 5,62</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 7,26</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 5,43</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 4,77</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 7,28</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>4,51; 6,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,61%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>180819</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77427</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>85586</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61692</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48855</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11005</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12256</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>243803</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>99775</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>138412</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>94291</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>66945</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18219</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13916</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>424622</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>177202</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>223998</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>155983</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>115800</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>29224</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>26172</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>142166; 240104</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46062; 146709</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>58291; 125791</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39353; 100939</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28294; 76952</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7744; 15021</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8731; 16438</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>201285; 291302</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>73351; 139235</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>105409; 174408</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>69192; 125771</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41591; 110660</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14295; 23610</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10354; 18016</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>358400; 488838</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>132219; 243519</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>181812; 275735</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>122850; 205032</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>83047; 167227</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>23732; 36442</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>20801; 32219</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>134730</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32905</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48661</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37242</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>60419</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3658</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>173707</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>75557</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>94729</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>78198</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>57244</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3062</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>308437</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>108462</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>143390</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>115440</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>117664</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>6720</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>100204; 188040</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16400; 61052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>30622; 71801</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22071; 59429</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35892; 100616</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2651; 7335</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2076; 5995</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>139947; 212501</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>48003; 127678</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>68497; 123009</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>51849; 143096</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36544; 84586</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1542; 5704</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1705; 5188</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>262014; 373331</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>76153; 164363</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>110380; 180152</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>84011; 169972</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>81795; 164759</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>5114; 11295</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>4442; 9815</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>53270</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28964</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23561</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52077</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20031</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40712</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13977</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10670</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>105348</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>26118</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>69677</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>37538</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>34262</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30978; 77746</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21577</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15490; 52519</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11195; 44849</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10531; 55686</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33794; 73136</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8504; 40733</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25132; 63849</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5867; 31190</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2743; 28656</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>77888; 139573</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12869; 55112</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>46570; 99831</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>22338; 63460</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>16351; 66701</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>368819</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>116419</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>163211</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>122494</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>132866</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15535</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15914</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>469588</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>195363</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>273853</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>186466</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>134859</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>21372</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>16978</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>838407</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>311782</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>437065</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>308960</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>267725</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>36908</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>32892</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>305190; 447609</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78735; 188460</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>126646; 210416</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>91749; 164505</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>93776; 182660</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11466; 20783</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11692; 21243</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>412019; 536040</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>154964; 259977</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>230799; 322140</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>146192; 239911</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>98244; 181472</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>16861; 26711</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>12590; 21939</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>754568; 927794</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>251276; 393555</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>375316; 507570</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>254515; 380006</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>211738; 334556</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>30371; 43922</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>27156; 40137</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
